--- a/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
+++ b/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/Portfolio Inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D3E0D-6293-D146-96AA-446CD830AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC79486-CD4E-E043-B994-801FF4A3FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
   <si>
     <t>Solar</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Hydrogen Use</t>
   </si>
   <si>
-    <t>Name: Current Projects Portfolio</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -290,15 +287,6 @@
     <t>Electricity (GW)</t>
   </si>
   <si>
-    <t>Step 1: Name and Describe Your Portfolio</t>
-  </si>
-  <si>
-    <t>Description: This portfolio describes The Current Projects portfolio reflects clean energy development projects that are being planned for or under way in the SJV. This includes:
-• Anticipated electricity resource buildouts described in the IPR Busbar Study (cite) that are associated with substations located in the SJV. This includes a buildout of 13.3 GW of utility solar, 270 MW of wind, 20MW of biomass and biomethane, 7.4 GW of battery storage, and 1 GW of long-duration energy storage. We allocate biomass and biogas to feedstocks according to the relative electricity production potential of each resource, as shown in Table B.2.
-• The Lone Cypress Blue Hydrogen facility located in Kern County and scheduled to come online in 2026 and produce 30 tons of H2 per day (11,000 tons/year) (California Resources Corporation, undated)
-• The DOE Hydrogen Hub facilities located in the Central Valley. The DOE has indicated that a total of 3 MMT of hydrogen will be produced from the 7 facilities. We estimate that the SJV would produce approximately 215,000 tons of hydrogen per year, if California produced 1/7th of the DOE total, and if half of California’s production took place in the SJV as suggested by the proposed facility locations (cite). The production of hydrogen by resource type is not available for these facilities. Connelly et al. (2020) suggest that solar production potential in the SJV may be 10 times larger than biogas production potential, which may be 10 times larger than biomass production potential. Consistent with this, we assume approximately 90% of production from solar, and 9% from biomethane, and 1% from biomass. We allocate biomass and biogas to feedstocks according to the relative hydrogen production potential of each resource.</t>
-  </si>
-  <si>
     <t>Step 3: What percent of the produced hydrogen should go to transportation vs. ammonia</t>
   </si>
   <si>
@@ -408,6 +396,18 @@
   </si>
   <si>
     <t>SAF rom Biomass</t>
+  </si>
+  <si>
+    <t>Description: The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</t>
+  </si>
+  <si>
+    <t>Step 1: Name and Describe Your Portfolio and add your name</t>
+  </si>
+  <si>
+    <t>Portfolio Name: Proportional Portfolio</t>
+  </si>
+  <si>
+    <t>Created By: Nidhi Kalra (nidhi@rand.org)</t>
   </si>
 </sst>
 </file>
@@ -954,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,15 +967,16 @@
     <col min="3" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
@@ -987,21 +988,26 @@
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1009,12 +1015,12 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1176,7 @@
       </c>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1188,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="11">
         <v>5</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1434,11 +1440,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1448,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
@@ -1462,22 +1469,22 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
       </c>
       <c r="G1">
         <v>2025</v>
@@ -1545,22 +1552,22 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="18">
         <f>AA2/21</f>
@@ -1649,22 +1656,22 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G20" si="1">AA3/21</f>
@@ -1753,22 +1760,22 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="1"/>
@@ -1857,22 +1864,22 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="1"/>
@@ -1961,22 +1968,22 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
@@ -2065,22 +2072,22 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
@@ -2169,22 +2176,22 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
@@ -2273,22 +2280,22 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
@@ -2377,13 +2384,13 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2392,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
@@ -2481,13 +2488,13 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2496,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
@@ -2585,13 +2592,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2600,7 +2607,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
@@ -2689,13 +2696,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2704,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
@@ -2793,13 +2800,13 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -2808,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="1"/>
@@ -2897,13 +2904,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2912,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" si="1"/>
@@ -3001,13 +3008,13 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3016,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
@@ -3105,13 +3112,13 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -3120,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="1"/>
@@ -3209,13 +3216,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -3224,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="1"/>
@@ -3313,13 +3320,13 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -3328,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="1"/>
@@ -3417,13 +3424,13 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -3432,7 +3439,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="1"/>
@@ -3540,10 +3547,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="25">
         <v>2025</v>
@@ -3614,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
@@ -3685,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="25">
         <v>0.5</v>
@@ -3756,7 +3763,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="25">
         <v>0.5</v>
@@ -3827,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3898,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
@@ -3986,24 +3993,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="18">
         <v>654000</v>
@@ -4052,13 +4059,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -4086,7 +4093,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>480</v>
@@ -4095,10 +4102,10 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -4139,7 +4146,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>0.85</v>
@@ -4188,7 +4195,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>0.04</v>
@@ -4212,7 +4219,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5">
         <v>140000</v>
@@ -4236,7 +4243,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -4252,7 +4259,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>100</v>

--- a/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
+++ b/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC79486-CD4E-E043-B994-801FF4A3FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7893D4C-76F1-9446-A009-FAA8E9D92358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="3900" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="feedstock_to_commodity" sheetId="3" r:id="rId2"/>
-    <sheet name="commodity_to_use" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
+    <sheet name="portfolio_metadata" sheetId="6" r:id="rId2"/>
+    <sheet name="feedstock_to_commodity" sheetId="3" r:id="rId3"/>
+    <sheet name="commodity_to_use" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
   <si>
     <t>Solar</t>
   </si>
@@ -398,16 +399,34 @@
     <t>SAF rom Biomass</t>
   </si>
   <si>
-    <t>Description: The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</t>
-  </si>
-  <si>
     <t>Step 1: Name and Describe Your Portfolio and add your name</t>
   </si>
   <si>
-    <t>Portfolio Name: Proportional Portfolio</t>
-  </si>
-  <si>
-    <t>Created By: Nidhi Kalra (nidhi@rand.org)</t>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Proportional Portfolio</t>
+  </si>
+  <si>
+    <t>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</t>
+  </si>
+  <si>
+    <t>Nidhi Kalra (nidhi@rand.org)</t>
+  </si>
+  <si>
+    <t>Metadata Value</t>
   </si>
 </sst>
 </file>
@@ -556,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -614,6 +633,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,7 +977,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,19 +1010,19 @@
     </row>
     <row r="3" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
@@ -1452,6 +1472,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB53C6B-5B9E-C54B-B988-736AC488AE93}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="str">
+        <f>portfolio_input!B3</f>
+        <v>Proportional Portfolio</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="str">
+        <f>portfolio_input!D3</f>
+        <v>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="29">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="str">
+        <f>portfolio_input!D3</f>
+        <v>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
@@ -1650,7 +1728,7 @@
         <v>25333.333333333339</v>
       </c>
       <c r="AA2">
-        <f>Sheet1!C8*1000</f>
+        <f>portfolio_input!C8*1000</f>
         <v>26600</v>
       </c>
     </row>
@@ -1754,7 +1832,7 @@
         <v>523.80952380952397</v>
       </c>
       <c r="AA3">
-        <f>Sheet1!C9*1000</f>
+        <f>portfolio_input!C9*1000</f>
         <v>550</v>
       </c>
     </row>
@@ -1858,7 +1936,7 @@
         <v>14095.238095238094</v>
       </c>
       <c r="AA4">
-        <f>Sheet1!C10*1000</f>
+        <f>portfolio_input!C10*1000</f>
         <v>14800</v>
       </c>
     </row>
@@ -1962,7 +2040,7 @@
         <v>952.38095238095207</v>
       </c>
       <c r="AA5">
-        <f>Sheet1!C11*1000</f>
+        <f>portfolio_input!C11*1000</f>
         <v>1000</v>
       </c>
     </row>
@@ -2066,7 +2144,7 @@
         <v>20.112392783200239</v>
       </c>
       <c r="AA6">
-        <f>Sheet1!C12*1000</f>
+        <f>portfolio_input!C12*1000</f>
         <v>21.118012422360248</v>
       </c>
     </row>
@@ -2170,7 +2248,7 @@
         <v>3.3126293995859224</v>
       </c>
       <c r="AA7">
-        <f>Sheet1!C13*1000</f>
+        <f>portfolio_input!C13*1000</f>
         <v>3.4782608695652177</v>
       </c>
     </row>
@@ -2274,7 +2352,7 @@
         <v>14.196983141082525</v>
       </c>
       <c r="AA8">
-        <f>Sheet1!C14*1000</f>
+        <f>portfolio_input!C14*1000</f>
         <v>14.906832298136647</v>
       </c>
     </row>
@@ -2378,7 +2456,7 @@
         <v>0.47323277136941733</v>
       </c>
       <c r="AA9">
-        <f>Sheet1!C15*1000</f>
+        <f>portfolio_input!C15*1000</f>
         <v>0.49689440993788819</v>
       </c>
     </row>
@@ -2482,7 +2560,7 @@
         <v>295238.09523809515</v>
       </c>
       <c r="AA10" s="18">
-        <f>Sheet1!C16</f>
+        <f>portfolio_input!C16</f>
         <v>310000</v>
       </c>
     </row>
@@ -2586,7 +2664,7 @@
         <v>10476.190476190473</v>
       </c>
       <c r="AA11" s="18">
-        <f>Sheet1!C17</f>
+        <f>portfolio_input!C17</f>
         <v>11000</v>
       </c>
     </row>
@@ -2690,7 +2768,7 @@
         <v>66514.111365369929</v>
       </c>
       <c r="AA12" s="18">
-        <f>Sheet1!C18</f>
+        <f>portfolio_input!C18</f>
         <v>69839.816933638445</v>
       </c>
     </row>
@@ -2794,7 +2872,7 @@
         <v>33180.952580436271</v>
       </c>
       <c r="AA13" s="18">
-        <f>Sheet1!C19</f>
+        <f>portfolio_input!C19</f>
         <v>34840.000209458078</v>
       </c>
     </row>
@@ -2898,7 +2976,7 @@
         <v>16552.511813581481</v>
       </c>
       <c r="AA14" s="18">
-        <f>Sheet1!C20</f>
+        <f>portfolio_input!C20</f>
         <v>17380.137404260553</v>
       </c>
     </row>
@@ -3002,7 +3080,7 @@
         <v>8257.3171060887016</v>
       </c>
       <c r="AA15" s="18">
-        <f>Sheet1!C21</f>
+        <f>portfolio_input!C21</f>
         <v>8670.1829613931368</v>
       </c>
     </row>
@@ -3106,7 +3184,7 @@
         <v>5494.5054945054953</v>
       </c>
       <c r="AA16" s="18">
-        <f>Sheet1!C22*1000</f>
+        <f>portfolio_input!C22*1000</f>
         <v>5769.2307692307695</v>
       </c>
     </row>
@@ -3210,7 +3288,7 @@
         <v>219.78021978021971</v>
       </c>
       <c r="AA17" s="18">
-        <f>Sheet1!C23*1000</f>
+        <f>portfolio_input!C23*1000</f>
         <v>230.76923076923077</v>
       </c>
     </row>
@@ -3314,7 +3392,7 @@
         <v>81632.653061224526</v>
       </c>
       <c r="AA18">
-        <f>Sheet1!C24*1000</f>
+        <f>portfolio_input!C24*1000</f>
         <v>85714.28571428571</v>
       </c>
     </row>
@@ -3418,7 +3496,7 @@
         <v>13605.442176870747</v>
       </c>
       <c r="AA19">
-        <f>Sheet1!C25*1000</f>
+        <f>portfolio_input!C25*1000</f>
         <v>14285.714285714284</v>
       </c>
     </row>
@@ -3522,7 +3600,7 @@
         <v>4761.9047619047633</v>
       </c>
       <c r="AA20">
-        <f>Sheet1!C26*1000</f>
+        <f>portfolio_input!C26*1000</f>
         <v>5000</v>
       </c>
     </row>
@@ -3531,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A302D73-9F74-D647-9FC8-5951743D164F}">
   <dimension ref="A1:W6"/>
   <sheetViews>
@@ -3976,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD9FC6-402B-8D4F-AF23-A8506C6A96EC}">
   <dimension ref="A1:H27"/>
   <sheetViews>

--- a/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
+++ b/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7893D4C-76F1-9446-A009-FAA8E9D92358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631D6F9-B607-0141-9F28-50023C835A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="4060" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -420,13 +420,13 @@
     <t>Proportional Portfolio</t>
   </si>
   <si>
-    <t>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</t>
-  </si>
-  <si>
     <t>Nidhi Kalra (nidhi@rand.org)</t>
   </si>
   <si>
     <t>Metadata Value</t>
+  </si>
+  <si>
+    <t>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule. THIS PORTFOLIO ONLY USES BIOGAS TO PRODUCE BIOMETHANE FOR THE GAS GRID WHILE WE UPDATE THE MODEL.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -624,6 +624,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -633,7 +640,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,35 +1003,35 @@
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -1152,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="23">
-        <v>2.1118012422360249E-2</v>
+        <v>3.4285714285714287E-2</v>
       </c>
       <c r="D12" s="14">
         <v>0.02</v>
@@ -1172,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="23">
-        <v>3.478260869565218E-3</v>
+        <v>3.0168589174800367E-3</v>
       </c>
       <c r="D13" s="13">
         <v>0.02</v>
@@ -1189,44 +1195,53 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1.4906832298136647E-2</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0</v>
       </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="23">
-        <v>4.9689440993788822E-4</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <f>D15</f>
+        <v>310000</v>
+      </c>
+      <c r="D15" s="16">
+        <v>310000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="21">
         <f>D16</f>
-        <v>310000</v>
+        <v>11000</v>
       </c>
       <c r="D16" s="16">
-        <v>310000</v>
+        <v>11000</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,20 +1249,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21">
-        <f>D17</f>
-        <v>11000</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="24">
+        <v>120157.48031496063</v>
       </c>
       <c r="D17" s="16">
-        <v>11000</v>
+        <v>70000</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,10 +1269,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="24">
-        <v>69839.816933638445</v>
+        <v>9898.5567307519032</v>
       </c>
       <c r="D18" s="16">
         <v>70000</v>
@@ -1275,83 +1289,91 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24">
-        <v>34840.000209458078</v>
-      </c>
-      <c r="D19" s="16">
-        <v>70000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="24">
-        <v>17380.137404260553</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="C20" s="11">
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="24">
-        <v>8670.1829613931368</v>
-      </c>
-      <c r="D21" s="16"/>
+      <c r="C21" s="11">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22" s="11">
-        <v>5.7692307692307692</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="D22" s="13">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C23" s="11">
-        <v>0.23076923076923078</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="D23" s="13">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,103 +1381,63 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C24" s="11">
-        <v>85.714285714285708</v>
+        <v>5</v>
       </c>
       <c r="D24" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11">
-        <v>14.285714285714285</v>
-      </c>
-      <c r="D25" s="13">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="11">
-        <v>5</v>
-      </c>
-      <c r="D26" s="13">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="7">
+        <f>SUM(B29:B30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="7">
-        <f>SUM(B31:B32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1486,7 +1468,7 @@
         <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,14 +1486,14 @@
       </c>
       <c r="B3" t="str">
         <f>portfolio_input!D3</f>
-        <v>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</v>
+        <v>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule. THIS PORTFOLIO ONLY USES BIOGAS TO PRODUCE BIOMETHANE FOR THE GAS GRID WHILE WE UPDATE THE MODEL.</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>45322</v>
       </c>
     </row>
@@ -1521,7 +1503,7 @@
       </c>
       <c r="B5" t="str">
         <f>portfolio_input!D3</f>
-        <v>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule.</v>
+        <v>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule. THIS PORTFOLIO ONLY USES BIOGAS TO PRODUCE BIOMETHANE FOR THE GAS GRID WHILE WE UPDATE THE MODEL.</v>
       </c>
     </row>
   </sheetData>
@@ -2065,87 +2047,87 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>1.0056196391600118</v>
+        <v>1.6326530612244898</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>2.0112392783200237</v>
+        <v>3.2653061224489797</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>3.0168589174800355</v>
+        <v>4.8979591836734695</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>4.0224785566400474</v>
+        <v>6.5306122448979593</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>5.0280981958000588</v>
+        <v>8.1632653061224492</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>6.0337178349600702</v>
+        <v>9.795918367346939</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>7.0393374741200816</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>8.044957113280093</v>
+        <v>13.061224489795919</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>9.0505767524401044</v>
+        <v>14.693877551020408</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>10.056196391600116</v>
+        <v>16.326530612244898</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>11.061816030760127</v>
+        <v>17.95918367346939</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>12.067435669920139</v>
+        <v>19.591836734693878</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>13.07305530908015</v>
+        <v>21.224489795918366</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>14.078674948240161</v>
+        <v>22.857142857142854</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>15.084294587400173</v>
+        <v>24.489795918367342</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>16.089914226560186</v>
+        <v>26.12244897959183</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>17.095533865720199</v>
+        <v>27.755102040816318</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>18.101153504880212</v>
+        <v>29.387755102040806</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>19.106773144040226</v>
+        <v>31.020408163265294</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>20.112392783200239</v>
+        <v>32.653061224489782</v>
       </c>
       <c r="AA6">
         <f>portfolio_input!C12*1000</f>
-        <v>21.118012422360248</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -2169,87 +2151,87 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>0.16563146997929609</v>
+        <v>0.14365994845143032</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.33126293995859218</v>
+        <v>0.28731989690286064</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.49689440993788825</v>
+        <v>0.43097984535429096</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0.66252587991718437</v>
+        <v>0.57463979380572128</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.82815734989648049</v>
+        <v>0.71829974225715154</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.99378881987577661</v>
+        <v>0.8619596907085818</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.1594202898550727</v>
+        <v>1.0056196391600121</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>1.3250517598343687</v>
+        <v>1.1492795876114423</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.4906832298136647</v>
+        <v>1.2929395360628726</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.6563146997929608</v>
+        <v>1.4365994845143029</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.8219461697722568</v>
+        <v>1.5802594329657331</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1.9875776397515528</v>
+        <v>1.7239193814171634</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>2.1532091097308488</v>
+        <v>1.8675793298685937</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>2.318840579710145</v>
+        <v>2.0112392783200241</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>2.4844720496894412</v>
+        <v>2.1548992267714544</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>2.6501035196687375</v>
+        <v>2.2985591752228847</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>2.8157349896480337</v>
+        <v>2.4422191236743149</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>2.9813664596273299</v>
+        <v>2.5858790721257452</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>3.1469979296066262</v>
+        <v>2.7295390205771755</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>3.3126293995859224</v>
+        <v>2.8731989690286057</v>
       </c>
       <c r="AA7">
         <f>portfolio_input!C13*1000</f>
-        <v>3.4782608695652177</v>
+        <v>3.0168589174800369</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -2273,87 +2255,87 @@
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>0.7098491570541261</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>1.4196983141082522</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>2.1295474711623781</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>2.8393966282165044</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>3.5492457852706307</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>4.259094942324757</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4.9689440993788834</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>5.6787932564330097</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>6.388642413487136</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>7.0984915705412623</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>7.8083407275953887</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>8.5181898846495141</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>9.2280390417036404</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>9.9378881987577667</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>10.647737355811893</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>11.357586512866019</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>12.067435669920146</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>12.777284826974272</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>13.487133984028398</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>14.196983141082525</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <f>portfolio_input!C14*1000</f>
-        <v>14.906832298136647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -2375,89 +2357,89 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>2.3661638568470866E-2</v>
-      </c>
-      <c r="H9">
+        <v>#REF!</v>
+      </c>
+      <c r="H9" t="e">
         <f t="shared" si="2"/>
-        <v>4.7323277136941733E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>7.0984915705412599E-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>9.4646554273883465E-2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.11830819284235433</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0.1419698314108252</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0.16563146997929606</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.18929310854776693</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0.2129547471162378</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0.23661638568470866</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.26027802425317953</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>0.2839396628216504</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0.30760130139012126</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0.33126293995859213</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0.35492457852706299</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0.37858621709553386</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>0.40224785566400473</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0.42590949423247559</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0.44957113280094646</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0.47323277136941733</v>
-      </c>
-      <c r="AA9">
-        <f>portfolio_input!C15*1000</f>
-        <v>0.49689440993788819</v>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA9" t="e">
+        <f>portfolio_input!#REF!*1000</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -2560,7 +2542,7 @@
         <v>295238.09523809515</v>
       </c>
       <c r="AA10" s="18">
-        <f>portfolio_input!C16</f>
+        <f>portfolio_input!C15</f>
         <v>310000</v>
       </c>
     </row>
@@ -2664,7 +2646,7 @@
         <v>10476.190476190473</v>
       </c>
       <c r="AA11" s="18">
-        <f>portfolio_input!C17</f>
+        <f>portfolio_input!C16</f>
         <v>11000</v>
       </c>
     </row>
@@ -2689,87 +2671,87 @@
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>3325.7055682684972</v>
+        <v>5721.7847769028867</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>6651.4111365369945</v>
+        <v>11443.569553805773</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>9977.1167048054922</v>
+        <v>17165.354330708658</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>13302.822273073989</v>
+        <v>22887.139107611547</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>16628.527841342486</v>
+        <v>28608.923884514435</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>19954.233409610984</v>
+        <v>34330.708661417324</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>23279.938977879483</v>
+        <v>40052.493438320213</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>26605.644546147982</v>
+        <v>45774.278215223101</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>29931.35011441648</v>
+        <v>51496.06299212599</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>33257.055682684979</v>
+        <v>57217.847769028878</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>36582.761250953474</v>
+        <v>62939.632545931767</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>39908.466819221969</v>
+        <v>68661.417322834648</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>43234.172387490464</v>
+        <v>74383.202099737537</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>46559.877955758959</v>
+        <v>80104.986876640425</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>49885.583524027454</v>
+        <v>85826.771653543314</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>53211.289092295949</v>
+        <v>91548.556430446202</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>56536.994660564444</v>
+        <v>97270.341207349091</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>59862.700228832939</v>
+        <v>102992.12598425198</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
-        <v>63188.405797101434</v>
+        <v>108713.91076115487</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>66514.111365369929</v>
+        <v>114435.69553805776</v>
       </c>
       <c r="AA12" s="18">
-        <f>portfolio_input!C18</f>
-        <v>69839.816933638445</v>
+        <f>portfolio_input!C17</f>
+        <v>120157.48031496063</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2793,87 +2775,87 @@
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>1659.0476290218132</v>
+        <v>471.35984432151918</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>3318.0952580436265</v>
+        <v>942.71968864303835</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>4977.1428870654399</v>
+        <v>1414.0795329645575</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>6636.1905160872529</v>
+        <v>1885.4393772860767</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>8295.238145109066</v>
+        <v>2356.7992216075959</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>9954.2857741308799</v>
+        <v>2828.1590659291151</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>11613.333403152694</v>
+        <v>3299.5189102506342</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>13272.381032174508</v>
+        <v>3770.8787545721534</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>14931.428661196322</v>
+        <v>4242.238598893673</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>16590.476290218136</v>
+        <v>4713.5984432151927</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>18249.523919239949</v>
+        <v>5184.9582875367123</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>19908.571548261763</v>
+        <v>5656.3181318582319</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>21567.619177283577</v>
+        <v>6127.6779761797516</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>23226.666806305391</v>
+        <v>6599.0378205012712</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>24885.714435327205</v>
+        <v>7070.3976648227908</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>26544.762064349019</v>
+        <v>7541.7575091443105</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>28203.809693370833</v>
+        <v>8013.1173534658301</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>29862.857322392647</v>
+        <v>8484.4771977873497</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>31521.904951414461</v>
+        <v>8955.8370421088694</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>33180.952580436271</v>
+        <v>9427.196886430389</v>
       </c>
       <c r="AA13" s="18">
-        <f>portfolio_input!C19</f>
-        <v>34840.000209458078</v>
+        <f>portfolio_input!C18</f>
+        <v>9898.5567307519032</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2897,87 +2879,87 @@
       </c>
       <c r="G14" s="18">
         <f t="shared" si="1"/>
-        <v>827.62559067907398</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>1655.251181358148</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>2482.8767720372221</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>3310.5023627162959</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>4138.1279533953702</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>4965.7535440744441</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>5793.379134753518</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>6621.0047254325918</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>7448.6303161116657</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>8276.2559067907405</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>9103.8814974698143</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>9931.5070881488882</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>10759.132678827962</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>11586.758269507036</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>12414.38386018611</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>13242.009450865184</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>14069.635041544258</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>14897.260632223331</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>15724.886222902405</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>16552.511813581481</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="18">
-        <f>portfolio_input!C20</f>
-        <v>17380.137404260553</v>
+        <f>portfolio_input!C19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2999,89 +2981,89 @@
       <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>412.86585530443506</v>
-      </c>
-      <c r="H15">
+        <v>#REF!</v>
+      </c>
+      <c r="H15" t="e">
         <f t="shared" si="2"/>
-        <v>825.73171060887012</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>1238.5975659133051</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1651.4634212177402</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>2064.3292765221754</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>2477.1951318266106</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>2890.0609871310457</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>3302.9268424354809</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>3715.7926977399161</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>4128.6585530443508</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>4541.524408348786</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>4954.3902636532212</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>5367.2561189576563</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>5780.1219742620915</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>6192.9878295665267</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>6605.8536848709618</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>7018.719540175397</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>7431.5853954798322</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>7844.4512507842674</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="0"/>
-        <v>8257.3171060887016</v>
-      </c>
-      <c r="AA15" s="18">
-        <f>portfolio_input!C21</f>
-        <v>8670.1829613931368</v>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA15" s="18" t="e">
+        <f>portfolio_input!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -3184,7 +3166,7 @@
         <v>5494.5054945054953</v>
       </c>
       <c r="AA16" s="18">
-        <f>portfolio_input!C22*1000</f>
+        <f>portfolio_input!C20*1000</f>
         <v>5769.2307692307695</v>
       </c>
     </row>
@@ -3288,7 +3270,7 @@
         <v>219.78021978021971</v>
       </c>
       <c r="AA17" s="18">
-        <f>portfolio_input!C23*1000</f>
+        <f>portfolio_input!C21*1000</f>
         <v>230.76923076923077</v>
       </c>
     </row>
@@ -3392,7 +3374,7 @@
         <v>81632.653061224526</v>
       </c>
       <c r="AA18">
-        <f>portfolio_input!C24*1000</f>
+        <f>portfolio_input!C22*1000</f>
         <v>85714.28571428571</v>
       </c>
     </row>
@@ -3496,7 +3478,7 @@
         <v>13605.442176870747</v>
       </c>
       <c r="AA19">
-        <f>portfolio_input!C25*1000</f>
+        <f>portfolio_input!C23*1000</f>
         <v>14285.714285714284</v>
       </c>
     </row>
@@ -3600,7 +3582,7 @@
         <v>4761.9047619047633</v>
       </c>
       <c r="AA20">
-        <f>portfolio_input!C26*1000</f>
+        <f>portfolio_input!C24*1000</f>
         <v>5000</v>
       </c>
     </row>
@@ -3611,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A302D73-9F74-D647-9FC8-5951743D164F}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3909,143 +3891,285 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>1</v>
+      </c>
+      <c r="L5" s="25">
+        <v>1</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1</v>
+      </c>
+      <c r="N5" s="25">
+        <v>1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>1</v>
+      </c>
+      <c r="R5" s="25">
+        <v>1</v>
+      </c>
+      <c r="S5" s="25">
+        <v>1</v>
+      </c>
+      <c r="T5" s="25">
+        <v>1</v>
+      </c>
+      <c r="U5" s="25">
+        <v>1</v>
+      </c>
+      <c r="V5" s="25">
+        <v>1</v>
+      </c>
+      <c r="W5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
-        <v>1</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="25">
-        <v>1</v>
-      </c>
-      <c r="O5" s="25">
-        <v>1</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>1</v>
-      </c>
-      <c r="R5" s="25">
-        <v>1</v>
-      </c>
-      <c r="S5" s="25">
-        <v>1</v>
-      </c>
-      <c r="T5" s="25">
-        <v>1</v>
-      </c>
-      <c r="U5" s="25">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
-        <v>1</v>
-      </c>
-      <c r="W5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25">
-        <v>1</v>
-      </c>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
-        <v>1</v>
-      </c>
-      <c r="K6" s="25">
-        <v>1</v>
-      </c>
-      <c r="L6" s="25">
-        <v>1</v>
-      </c>
-      <c r="M6" s="25">
-        <v>1</v>
-      </c>
-      <c r="N6" s="25">
-        <v>1</v>
-      </c>
-      <c r="O6" s="25">
-        <v>1</v>
-      </c>
-      <c r="P6" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>1</v>
-      </c>
-      <c r="R6" s="25">
-        <v>1</v>
-      </c>
-      <c r="S6" s="25">
-        <v>1</v>
-      </c>
-      <c r="T6" s="25">
-        <v>1</v>
-      </c>
-      <c r="U6" s="25">
-        <v>1</v>
-      </c>
-      <c r="V6" s="25">
-        <v>1</v>
-      </c>
-      <c r="W6" s="25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>1</v>
       </c>
     </row>
@@ -4056,7 +4180,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD9FC6-402B-8D4F-AF23-A8506C6A96EC}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16:D16"/>
@@ -4129,8 +4253,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="19">
+        <f>C2/(C2+D2)</f>
+        <v>0.8582677165354331</v>
+      </c>
+      <c r="D4" s="19">
+        <f>1-C4</f>
+        <v>0.1417322834645669</v>
+      </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="H4" s="19"/>
@@ -4216,8 +4346,8 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D9" s="19">
-        <f>D7/(C7+D7)</f>
-        <v>0.14285714285714285</v>
+        <f>1-C9</f>
+        <v>0.1428571428571429</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -4296,63 +4426,85 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="C14">
+        <f>B13*C9</f>
+        <v>3.4285714285714287E-2</v>
+      </c>
+      <c r="D14">
+        <f>C13*D9</f>
+        <v>3.0168589174800367E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5">
         <v>140000</v>
       </c>
-      <c r="C14">
-        <f>B14*$C3</f>
+      <c r="C15">
+        <f>B15*$C3</f>
         <v>69839.816933638445</v>
       </c>
-      <c r="D14">
-        <f>C14*$C3</f>
+      <c r="D15">
+        <f>C15*$C3</f>
         <v>34840.000209458078</v>
       </c>
-      <c r="E14">
-        <f>D14*$C3</f>
+      <c r="E15">
+        <f>D15*$C3</f>
         <v>17380.137404260553</v>
       </c>
-      <c r="F14">
-        <f>E14*$C3</f>
+      <c r="F15">
+        <f>E15*$C3</f>
         <v>8670.1829613931368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16">
+        <f>B15*C4</f>
+        <v>120157.48031496063</v>
+      </c>
+      <c r="D16">
+        <f>C15*D4</f>
+        <v>9898.5567307519032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="E15">
-        <f>$B15*E6</f>
+      <c r="E17">
+        <f>$B17*E6</f>
         <v>5.7692307692307692</v>
       </c>
-      <c r="F15">
-        <f>$B15*F6</f>
+      <c r="F17">
+        <f>$B17*F6</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>91</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>100</v>
       </c>
-      <c r="C16">
-        <f>$B16*C9</f>
+      <c r="C18">
+        <f>$B18*C9</f>
         <v>85.714285714285708</v>
       </c>
-      <c r="D16">
-        <f>$B16*D9</f>
-        <v>14.285714285714285</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27">
+      <c r="D18">
+        <f>$B18*D9</f>
+        <v>14.28571428571429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29">
         <f>215000-193500</f>
         <v>21500</v>
       </c>

--- a/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
+++ b/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631D6F9-B607-0141-9F28-50023C835A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EDF2E1-F73B-FA4F-941E-BD5874E3F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4060" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="6240" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="102">
   <si>
     <t>Solar</t>
   </si>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1638,7 @@
         <v>2533.3333333333335</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:Z15" si="0">$AA2/21+H2</f>
+        <f t="shared" ref="I2:Z13" si="0">$AA2/21+H2</f>
         <v>3800</v>
       </c>
       <c r="J2">
@@ -1734,11 +1734,11 @@
         <v>63</v>
       </c>
       <c r="G3" s="18">
-        <f t="shared" ref="G3:G20" si="1">AA3/21</f>
+        <f t="shared" ref="G3:G18" si="1">AA3/21</f>
         <v>26.19047619047619</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:W15" si="2">$AA3/21+G3</f>
+        <f t="shared" ref="H3:W13" si="2">$AA3/21+G3</f>
         <v>52.38095238095238</v>
       </c>
       <c r="I3">
@@ -2047,87 +2047,87 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>1.6326530612244898</v>
+        <v>0.14365994845143032</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>3.2653061224489797</v>
+        <v>0.28731989690286064</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>4.8979591836734695</v>
+        <v>0.43097984535429096</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>6.5306122448979593</v>
+        <v>0.57463979380572128</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>8.1632653061224492</v>
+        <v>0.71829974225715154</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>9.795918367346939</v>
+        <v>0.8619596907085818</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>11.428571428571429</v>
+        <v>1.0056196391600121</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>13.061224489795919</v>
+        <v>1.1492795876114423</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>14.693877551020408</v>
+        <v>1.2929395360628726</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>16.326530612244898</v>
+        <v>1.4365994845143029</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>17.95918367346939</v>
+        <v>1.5802594329657331</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>19.591836734693878</v>
+        <v>1.7239193814171634</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>21.224489795918366</v>
+        <v>1.8675793298685937</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>22.857142857142854</v>
+        <v>2.0112392783200241</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>24.489795918367342</v>
+        <v>2.1548992267714544</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>26.12244897959183</v>
+        <v>2.2985591752228847</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>27.755102040816318</v>
+        <v>2.4422191236743149</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>29.387755102040806</v>
+        <v>2.5858790721257452</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>31.020408163265294</v>
+        <v>2.7295390205771755</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>32.653061224489782</v>
+        <v>2.8731989690286057</v>
       </c>
       <c r="AA6">
-        <f>portfolio_input!C12*1000</f>
-        <v>34.285714285714285</v>
+        <f>portfolio_input!C13*1000</f>
+        <v>3.0168589174800369</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -2151,87 +2151,87 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>0.14365994845143032</v>
+        <v>1.6326530612244898</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.28731989690286064</v>
+        <v>3.2653061224489797</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.43097984535429096</v>
+        <v>4.8979591836734695</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0.57463979380572128</v>
+        <v>6.5306122448979593</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.71829974225715154</v>
+        <v>8.1632653061224492</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.8619596907085818</v>
+        <v>9.795918367346939</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.0056196391600121</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>1.1492795876114423</v>
+        <v>13.061224489795919</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.2929395360628726</v>
+        <v>14.693877551020408</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.4365994845143029</v>
+        <v>16.326530612244898</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.5802594329657331</v>
+        <v>17.95918367346939</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1.7239193814171634</v>
+        <v>19.591836734693878</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>1.8675793298685937</v>
+        <v>21.224489795918366</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>2.0112392783200241</v>
+        <v>22.857142857142854</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>2.1548992267714544</v>
+        <v>24.489795918367342</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>2.2985591752228847</v>
+        <v>26.12244897959183</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>2.4422191236743149</v>
+        <v>27.755102040816318</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>2.5858790721257452</v>
+        <v>29.387755102040806</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>2.7295390205771755</v>
+        <v>31.020408163265294</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>2.8731989690286057</v>
+        <v>32.653061224489782</v>
       </c>
       <c r="AA7">
-        <f>portfolio_input!C13*1000</f>
-        <v>3.0168589174800369</v>
+        <f>portfolio_input!C12*1000</f>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -2340,117 +2340,117 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="18" t="e">
+        <v>69</v>
+      </c>
+      <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>14761.904761904761</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z9" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA9" t="e">
-        <f>portfolio_input!#REF!*1000</f>
-        <v>#REF!</v>
+        <v>29523.809523809523</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>44285.714285714283</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>59047.619047619046</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>73809.523809523802</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>88571.428571428565</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>103333.33333333333</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>118095.23809523809</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>132857.14285714284</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>147619.0476190476</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>162380.95238095237</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>177142.85714285713</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>191904.76190476189</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>206666.66666666666</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>221428.57142857142</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>236190.47619047618</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>250952.38095238095</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>265714.28571428568</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>280476.19047619042</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>295238.09523809515</v>
+      </c>
+      <c r="AA9" s="18">
+        <f>portfolio_input!C15</f>
+        <v>310000</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2463,98 +2463,98 @@
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
-        <v>14761.904761904761</v>
+        <v>523.80952380952385</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>29523.809523809523</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>44285.714285714283</v>
+        <v>1571.4285714285716</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>59047.619047619046</v>
+        <v>2095.2380952380954</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>73809.523809523802</v>
+        <v>2619.0476190476193</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>88571.428571428565</v>
+        <v>3142.8571428571431</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>103333.33333333333</v>
+        <v>3666.666666666667</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>118095.23809523809</v>
+        <v>4190.4761904761908</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>132857.14285714284</v>
+        <v>4714.2857142857147</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>147619.0476190476</v>
+        <v>5238.0952380952385</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>162380.95238095237</v>
+        <v>5761.9047619047624</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>177142.85714285713</v>
+        <v>6285.7142857142862</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>191904.76190476189</v>
+        <v>6809.5238095238101</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>206666.66666666666</v>
+        <v>7333.3333333333339</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>221428.57142857142</v>
+        <v>7857.1428571428578</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>236190.47619047618</v>
+        <v>8380.9523809523816</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>250952.38095238095</v>
+        <v>8904.7619047619046</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>265714.28571428568</v>
+        <v>9428.5714285714275</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>280476.19047619042</v>
+        <v>9952.3809523809505</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>295238.09523809515</v>
+        <v>10476.190476190473</v>
       </c>
       <c r="AA10" s="18">
-        <f>portfolio_input!C15</f>
-        <v>310000</v>
+        <f>portfolio_input!C16</f>
+        <v>11000</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2567,87 +2567,87 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
-        <v>523.80952380952385</v>
+        <v>5721.7847769028867</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>1047.6190476190477</v>
+        <v>11443.569553805773</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>1571.4285714285716</v>
+        <v>17165.354330708658</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>2095.2380952380954</v>
+        <v>22887.139107611547</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2619.0476190476193</v>
+        <v>28608.923884514435</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>3142.8571428571431</v>
+        <v>34330.708661417324</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>3666.666666666667</v>
+        <v>40052.493438320213</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>4190.4761904761908</v>
+        <v>45774.278215223101</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>4714.2857142857147</v>
+        <v>51496.06299212599</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>5238.0952380952385</v>
+        <v>57217.847769028878</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>5761.9047619047624</v>
+        <v>62939.632545931767</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
-        <v>6285.7142857142862</v>
+        <v>68661.417322834648</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>6809.5238095238101</v>
+        <v>74383.202099737537</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>7333.3333333333339</v>
+        <v>80104.986876640425</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>7857.1428571428578</v>
+        <v>85826.771653543314</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>8380.9523809523816</v>
+        <v>91548.556430446202</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>8904.7619047619046</v>
+        <v>97270.341207349091</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>9428.5714285714275</v>
+        <v>102992.12598425198</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>9952.3809523809505</v>
+        <v>108713.91076115487</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>10476.190476190473</v>
+        <v>114435.69553805776</v>
       </c>
       <c r="AA11" s="18">
-        <f>portfolio_input!C16</f>
-        <v>11000</v>
+        <f>portfolio_input!C17</f>
+        <v>120157.48031496063</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -2671,87 +2671,87 @@
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>5721.7847769028867</v>
+        <v>471.35984432151918</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>11443.569553805773</v>
+        <v>942.71968864303835</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>17165.354330708658</v>
+        <v>1414.0795329645575</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>22887.139107611547</v>
+        <v>1885.4393772860767</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>28608.923884514435</v>
+        <v>2356.7992216075959</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>34330.708661417324</v>
+        <v>2828.1590659291151</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>40052.493438320213</v>
+        <v>3299.5189102506342</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>45774.278215223101</v>
+        <v>3770.8787545721534</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>51496.06299212599</v>
+        <v>4242.238598893673</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>57217.847769028878</v>
+        <v>4713.5984432151927</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>62939.632545931767</v>
+        <v>5184.9582875367123</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>68661.417322834648</v>
+        <v>5656.3181318582319</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>74383.202099737537</v>
+        <v>6127.6779761797516</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>80104.986876640425</v>
+        <v>6599.0378205012712</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>85826.771653543314</v>
+        <v>7070.3976648227908</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>91548.556430446202</v>
+        <v>7541.7575091443105</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>97270.341207349091</v>
+        <v>8013.1173534658301</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>102992.12598425198</v>
+        <v>8484.4771977873497</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
-        <v>108713.91076115487</v>
+        <v>8955.8370421088694</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>114435.69553805776</v>
+        <v>9427.196886430389</v>
       </c>
       <c r="AA12" s="18">
-        <f>portfolio_input!C17</f>
-        <v>120157.48031496063</v>
+        <f>portfolio_input!C18</f>
+        <v>9898.5567307519032</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2759,10 +2759,10 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2775,87 +2775,87 @@
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>471.35984432151918</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>942.71968864303835</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>1414.0795329645575</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>1885.4393772860767</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>2356.7992216075959</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>2828.1590659291151</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>3299.5189102506342</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>3770.8787545721534</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>4242.238598893673</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>4713.5984432151927</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>5184.9582875367123</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>5656.3181318582319</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>6127.6779761797516</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>6599.0378205012712</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>7070.3976648227908</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>7541.7575091443105</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>8013.1173534658301</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>8484.4771977873497</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>8955.8370421088694</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>9427.196886430389</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="18">
-        <f>portfolio_input!C18</f>
-        <v>9898.5567307519032</v>
+        <f>portfolio_input!C19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2866,100 +2866,100 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>274.72527472527474</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="H14:Z14" si="3">$AA14/21+G14</f>
+        <v>549.45054945054949</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>824.17582417582423</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1098.901098901099</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1373.6263736263736</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1648.3516483516482</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1923.0769230769229</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2197.8021978021975</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2472.5274725274721</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2747.2527472527468</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3021.9780219780214</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3296.703296703296</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3571.4285714285706</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3846.1538461538453</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4120.8791208791199</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4395.604395604395</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4670.3296703296701</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4945.0549450549452</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5219.7802197802202</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5494.5054945054953</v>
       </c>
       <c r="AA14" s="18">
-        <f>portfolio_input!C19</f>
-        <v>0</v>
+        <f>portfolio_input!C20*1000</f>
+        <v>5769.2307692307695</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2970,100 +2970,100 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="18" t="e">
+        <v>73</v>
+      </c>
+      <c r="G15" s="18">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA15" s="18" t="e">
-        <f>portfolio_input!#REF!</f>
-        <v>#REF!</v>
+        <v>10.989010989010989</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:Z15" si="4">$AA15/21+G15</f>
+        <v>21.978021978021978</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>32.967032967032964</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>43.956043956043956</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>54.945054945054949</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>65.934065934065941</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>87.912087912087927</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>98.901098901098919</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>109.89010989010991</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>120.8791208791209</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>131.86813186813188</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>164.83516483516482</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>175.8241758241758</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>186.81318681318677</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>197.80219780219775</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>208.79120879120873</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>219.78021978021971</v>
+      </c>
+      <c r="AA15" s="18">
+        <f>portfolio_input!C21*1000</f>
+        <v>230.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -3071,103 +3071,103 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
-        <v>274.72527472527474</v>
+        <v>4081.6326530612241</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:Z16" si="3">$AA16/21+G16</f>
-        <v>549.45054945054949</v>
+        <f t="shared" ref="H16:Z16" si="5">$AA16/21+G16</f>
+        <v>8163.2653061224482</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>824.17582417582423</v>
+        <f t="shared" si="5"/>
+        <v>12244.897959183672</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
-        <v>1098.901098901099</v>
+        <f t="shared" si="5"/>
+        <v>16326.530612244896</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
-        <v>1373.6263736263736</v>
+        <f t="shared" si="5"/>
+        <v>20408.163265306121</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
-        <v>1648.3516483516482</v>
+        <f t="shared" si="5"/>
+        <v>24489.795918367345</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>1923.0769230769229</v>
+        <f t="shared" si="5"/>
+        <v>28571.428571428569</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
-        <v>2197.8021978021975</v>
+        <f t="shared" si="5"/>
+        <v>32653.061224489793</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
-        <v>2472.5274725274721</v>
+        <f t="shared" si="5"/>
+        <v>36734.693877551021</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
-        <v>2747.2527472527468</v>
+        <f t="shared" si="5"/>
+        <v>40816.326530612248</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>3021.9780219780214</v>
+        <f t="shared" si="5"/>
+        <v>44897.959183673476</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
-        <v>3296.703296703296</v>
+        <f t="shared" si="5"/>
+        <v>48979.591836734704</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
-        <v>3571.4285714285706</v>
+        <f t="shared" si="5"/>
+        <v>53061.224489795932</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
-        <v>3846.1538461538453</v>
+        <f t="shared" si="5"/>
+        <v>57142.857142857159</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
-        <v>4120.8791208791199</v>
+        <f t="shared" si="5"/>
+        <v>61224.489795918387</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
-        <v>4395.604395604395</v>
+        <f t="shared" si="5"/>
+        <v>65306.122448979615</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
-        <v>4670.3296703296701</v>
+        <f t="shared" si="5"/>
+        <v>69387.755102040843</v>
       </c>
       <c r="X16">
-        <f t="shared" si="3"/>
-        <v>4945.0549450549452</v>
+        <f t="shared" si="5"/>
+        <v>73469.387755102071</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="3"/>
-        <v>5219.7802197802202</v>
+        <f t="shared" si="5"/>
+        <v>77551.020408163298</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="3"/>
-        <v>5494.5054945054953</v>
-      </c>
-      <c r="AA16" s="18">
-        <f>portfolio_input!C20*1000</f>
-        <v>5769.2307692307695</v>
+        <f t="shared" si="5"/>
+        <v>81632.653061224526</v>
+      </c>
+      <c r="AA16">
+        <f>portfolio_input!C22*1000</f>
+        <v>85714.28571428571</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -3175,103 +3175,103 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="1"/>
-        <v>10.989010989010989</v>
+        <v>680.27210884353735</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:Z17" si="4">$AA17/21+G17</f>
-        <v>21.978021978021978</v>
+        <f t="shared" ref="H17:Z17" si="6">$AA17/21+G17</f>
+        <v>1360.5442176870747</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
-        <v>32.967032967032964</v>
+        <f t="shared" si="6"/>
+        <v>2040.8163265306121</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>43.956043956043956</v>
+        <f t="shared" si="6"/>
+        <v>2721.0884353741494</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
-        <v>54.945054945054949</v>
+        <f t="shared" si="6"/>
+        <v>3401.3605442176868</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
-        <v>65.934065934065941</v>
+        <f t="shared" si="6"/>
+        <v>4081.6326530612241</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>76.923076923076934</v>
+        <f t="shared" si="6"/>
+        <v>4761.9047619047615</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
-        <v>87.912087912087927</v>
+        <f t="shared" si="6"/>
+        <v>5442.1768707482988</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
-        <v>98.901098901098919</v>
+        <f t="shared" si="6"/>
+        <v>6122.4489795918362</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
-        <v>109.89010989010991</v>
+        <f t="shared" si="6"/>
+        <v>6802.7210884353735</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>120.8791208791209</v>
+        <f t="shared" si="6"/>
+        <v>7482.9931972789109</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
-        <v>131.86813186813188</v>
+        <f t="shared" si="6"/>
+        <v>8163.2653061224482</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
-        <v>142.85714285714286</v>
+        <f t="shared" si="6"/>
+        <v>8843.5374149659856</v>
       </c>
       <c r="T17">
-        <f t="shared" si="4"/>
-        <v>153.84615384615384</v>
+        <f t="shared" si="6"/>
+        <v>9523.8095238095229</v>
       </c>
       <c r="U17">
-        <f t="shared" si="4"/>
-        <v>164.83516483516482</v>
+        <f t="shared" si="6"/>
+        <v>10204.08163265306</v>
       </c>
       <c r="V17">
-        <f t="shared" si="4"/>
-        <v>175.8241758241758</v>
+        <f t="shared" si="6"/>
+        <v>10884.353741496598</v>
       </c>
       <c r="W17">
-        <f t="shared" si="4"/>
-        <v>186.81318681318677</v>
+        <f t="shared" si="6"/>
+        <v>11564.625850340135</v>
       </c>
       <c r="X17">
-        <f t="shared" si="4"/>
-        <v>197.80219780219775</v>
+        <f t="shared" si="6"/>
+        <v>12244.897959183672</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="4"/>
-        <v>208.79120879120873</v>
+        <f t="shared" si="6"/>
+        <v>12925.17006802721</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="4"/>
-        <v>219.78021978021971</v>
-      </c>
-      <c r="AA17" s="18">
-        <f>portfolio_input!C21*1000</f>
-        <v>230.76923076923077</v>
+        <f t="shared" si="6"/>
+        <v>13605.442176870747</v>
+      </c>
+      <c r="AA17">
+        <f>portfolio_input!C23*1000</f>
+        <v>14285.714285714284</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -3279,10 +3279,10 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -3295,293 +3295,85 @@
       </c>
       <c r="G18" s="18">
         <f t="shared" si="1"/>
-        <v>4081.6326530612241</v>
+        <v>238.0952380952381</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:Z18" si="5">$AA18/21+G18</f>
-        <v>8163.2653061224482</v>
+        <f t="shared" ref="H18:Z18" si="7">$AA18/21+G18</f>
+        <v>476.1904761904762</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
-        <v>12244.897959183672</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="5"/>
-        <v>16326.530612244896</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>20408.163265306121</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>24489.795918367345</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="5"/>
-        <v>28571.428571428569</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>32653.061224489793</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="5"/>
-        <v>36734.693877551021</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="5"/>
-        <v>40816.326530612248</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="5"/>
-        <v>44897.959183673476</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="5"/>
-        <v>48979.591836734704</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="5"/>
-        <v>53061.224489795932</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="5"/>
-        <v>57142.857142857159</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="5"/>
-        <v>61224.489795918387</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="5"/>
-        <v>65306.122448979615</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="5"/>
-        <v>69387.755102040843</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="5"/>
-        <v>73469.387755102071</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="5"/>
-        <v>77551.020408163298</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="5"/>
-        <v>81632.653061224526</v>
-      </c>
-      <c r="AA18">
-        <f>portfolio_input!C22*1000</f>
-        <v>85714.28571428571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="18">
-        <f t="shared" si="1"/>
-        <v>680.27210884353735</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:Z19" si="6">$AA19/21+G19</f>
-        <v>1360.5442176870747</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
-        <v>2040.8163265306121</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>2721.0884353741494</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="6"/>
-        <v>3401.3605442176868</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
-        <v>4081.6326530612241</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>4761.9047619047615</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="6"/>
-        <v>5442.1768707482988</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="6"/>
-        <v>6122.4489795918362</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="6"/>
-        <v>6802.7210884353735</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="6"/>
-        <v>7482.9931972789109</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="6"/>
-        <v>8163.2653061224482</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="6"/>
-        <v>8843.5374149659856</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="6"/>
-        <v>9523.8095238095229</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="6"/>
-        <v>10204.08163265306</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="6"/>
-        <v>10884.353741496598</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="6"/>
-        <v>11564.625850340135</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="6"/>
-        <v>12244.897959183672</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="6"/>
-        <v>12925.17006802721</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="6"/>
-        <v>13605.442176870747</v>
-      </c>
-      <c r="AA19">
-        <f>portfolio_input!C23*1000</f>
-        <v>14285.714285714284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="1"/>
-        <v>238.0952380952381</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:Z20" si="7">$AA20/21+G20</f>
-        <v>476.1904761904762</v>
-      </c>
-      <c r="I20">
         <f t="shared" si="7"/>
         <v>714.28571428571433</v>
       </c>
-      <c r="J20">
+      <c r="J18">
         <f t="shared" si="7"/>
         <v>952.38095238095241</v>
       </c>
-      <c r="K20">
+      <c r="K18">
         <f t="shared" si="7"/>
         <v>1190.4761904761906</v>
       </c>
-      <c r="L20">
+      <c r="L18">
         <f t="shared" si="7"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="M20">
+      <c r="M18">
         <f t="shared" si="7"/>
         <v>1666.6666666666667</v>
       </c>
-      <c r="N20">
+      <c r="N18">
         <f t="shared" si="7"/>
         <v>1904.7619047619048</v>
       </c>
-      <c r="O20">
+      <c r="O18">
         <f t="shared" si="7"/>
         <v>2142.8571428571431</v>
       </c>
-      <c r="P20">
+      <c r="P18">
         <f t="shared" si="7"/>
         <v>2380.9523809523812</v>
       </c>
-      <c r="Q20">
+      <c r="Q18">
         <f t="shared" si="7"/>
         <v>2619.0476190476193</v>
       </c>
-      <c r="R20">
+      <c r="R18">
         <f t="shared" si="7"/>
         <v>2857.1428571428573</v>
       </c>
-      <c r="S20">
+      <c r="S18">
         <f t="shared" si="7"/>
         <v>3095.2380952380954</v>
       </c>
-      <c r="T20">
+      <c r="T18">
         <f t="shared" si="7"/>
         <v>3333.3333333333335</v>
       </c>
-      <c r="U20">
+      <c r="U18">
         <f t="shared" si="7"/>
         <v>3571.4285714285716</v>
       </c>
-      <c r="V20">
+      <c r="V18">
         <f t="shared" si="7"/>
         <v>3809.5238095238096</v>
       </c>
-      <c r="W20">
+      <c r="W18">
         <f t="shared" si="7"/>
         <v>4047.6190476190477</v>
       </c>
-      <c r="X20">
+      <c r="X18">
         <f t="shared" si="7"/>
         <v>4285.7142857142862</v>
       </c>
-      <c r="Y20">
+      <c r="Y18">
         <f t="shared" si="7"/>
         <v>4523.8095238095248</v>
       </c>
-      <c r="Z20">
+      <c r="Z18">
         <f t="shared" si="7"/>
         <v>4761.9047619047633</v>
       </c>
-      <c r="AA20">
+      <c r="AA18">
         <f>portfolio_input!C24*1000</f>
         <v>5000</v>
       </c>

--- a/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
+++ b/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EDF2E1-F73B-FA4F-941E-BD5874E3F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAFFF8-FB38-0746-AC31-681BAB568EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="2320" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="98">
   <si>
     <t>Solar</t>
   </si>
@@ -355,18 +355,6 @@
   </si>
   <si>
     <t>Input Category</t>
-  </si>
-  <si>
-    <t>Solar/Wind</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
   </si>
   <si>
     <t>Use</t>
@@ -575,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -617,18 +605,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -639,6 +618,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -980,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,35 +985,35 @@
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -1157,8 +1139,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="23">
-        <v>3.4285714285714287E-2</v>
+      <c r="C12" s="25">
+        <v>2.1118012422360249E-2</v>
       </c>
       <c r="D12" s="14">
         <v>0.02</v>
@@ -1177,8 +1159,8 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="23">
-        <v>3.0168589174800367E-3</v>
+      <c r="C13" s="25">
+        <v>3.478260869565218E-3</v>
       </c>
       <c r="D13" s="13">
         <v>0.02</v>
@@ -1195,53 +1177,44 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1.4906832298136647E-2</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="21">
-        <f>D15</f>
-        <v>310000</v>
-      </c>
-      <c r="D15" s="16">
-        <v>310000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C15" s="25">
+        <v>4.9689440993788822E-4</v>
+      </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C16" s="21">
         <f>D16</f>
-        <v>11000</v>
+        <v>310000</v>
       </c>
       <c r="D16" s="16">
-        <v>11000</v>
+        <v>310000</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,19 +1222,20 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="24">
-        <v>120157.48031496063</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="21">
+        <f>D17</f>
+        <v>11000</v>
       </c>
       <c r="D17" s="16">
-        <v>70000</v>
+        <v>11000</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,10 +1243,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="24">
-        <v>9898.5567307519032</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="29">
+        <v>83854.869455332082</v>
       </c>
       <c r="D18" s="16">
         <v>70000</v>
@@ -1289,91 +1263,83 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="28">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="29">
+        <v>13811.390263231167</v>
+      </c>
+      <c r="D19" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11">
-        <v>5.7692307692307692</v>
-      </c>
-      <c r="D20" s="13">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="29">
+        <v>39760.971535051081</v>
+      </c>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="D21" s="13">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="29">
+        <v>2572.7687463856578</v>
+      </c>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C22" s="11">
-        <v>85.714285714285708</v>
+        <v>5.7692307692307692</v>
       </c>
       <c r="D22" s="13">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" s="11">
-        <v>14.285714285714285</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="D23" s="13">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1381,63 +1347,103 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C24" s="11">
-        <v>5</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="D24" s="13">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="D25" s="13">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="11">
+        <v>5</v>
+      </c>
+      <c r="D26" s="13">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B31" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B32" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="7">
-        <f>SUM(B29:B30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="7">
+        <f>SUM(B31:B32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1465,15 +1471,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="str">
         <f>portfolio_input!B3</f>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" t="str">
         <f>portfolio_input!D3</f>
@@ -1491,15 +1497,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="26">
+        <v>92</v>
+      </c>
+      <c r="B4" s="24">
         <v>45322</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" t="str">
         <f>portfolio_input!D3</f>
@@ -1513,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA2:AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1638,7 +1644,7 @@
         <v>2533.3333333333335</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:Z13" si="0">$AA2/21+H2</f>
+        <f t="shared" ref="I2:Z15" si="0">$AA2/21+H2</f>
         <v>3800</v>
       </c>
       <c r="J2">
@@ -1716,7 +1722,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1734,71 +1740,71 @@
         <v>63</v>
       </c>
       <c r="G3" s="18">
-        <f t="shared" ref="G3:G18" si="1">AA3/21</f>
+        <f t="shared" ref="G3:G9" si="1">AA3/21</f>
         <v>26.19047619047619</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:W13" si="2">$AA3/21+G3</f>
+        <f t="shared" ref="H3:W9" si="2">$AA3/21+G3</f>
         <v>52.38095238095238</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H3:W15" si="3">$AA3/21+H3</f>
         <v>78.571428571428569</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104.76190476190476</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130.95238095238096</v>
       </c>
       <c r="L3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157.14285714285717</v>
       </c>
       <c r="M3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183.33333333333337</v>
       </c>
       <c r="N3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209.52380952380958</v>
       </c>
       <c r="O3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>235.71428571428578</v>
       </c>
       <c r="P3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>261.90476190476198</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>288.09523809523819</v>
       </c>
       <c r="R3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>314.28571428571439</v>
       </c>
       <c r="S3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>340.4761904761906</v>
       </c>
       <c r="T3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>366.6666666666668</v>
       </c>
       <c r="U3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>392.857142857143</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>419.04761904761921</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>445.23809523809541</v>
       </c>
       <c r="X3">
@@ -1820,7 +1826,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2028,10 +2034,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -2047,95 +2053,95 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>0.14365994845143032</v>
+        <v>1.0056196391600118</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.28731989690286064</v>
+        <v>2.0112392783200237</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.43097984535429096</v>
+        <v>3.0168589174800355</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0.57463979380572128</v>
+        <v>4.0224785566400474</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.71829974225715154</v>
+        <v>5.0280981958000588</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.8619596907085818</v>
+        <v>6.0337178349600702</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>1.0056196391600121</v>
+        <v>7.0393374741200816</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>1.1492795876114423</v>
+        <v>8.044957113280093</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>1.2929395360628726</v>
+        <v>9.0505767524401044</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>1.4365994845143029</v>
+        <v>10.056196391600116</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>1.5802594329657331</v>
+        <v>11.061816030760127</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>1.7239193814171634</v>
+        <v>12.067435669920139</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>1.8675793298685937</v>
+        <v>13.07305530908015</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>2.0112392783200241</v>
+        <v>14.078674948240161</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>2.1548992267714544</v>
+        <v>15.084294587400173</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>2.2985591752228847</v>
+        <v>16.089914226560186</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>2.4422191236743149</v>
+        <v>17.095533865720199</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2.5858790721257452</v>
+        <v>18.101153504880212</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>2.7295390205771755</v>
+        <v>19.106773144040226</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>2.8731989690286057</v>
+        <v>20.112392783200239</v>
       </c>
       <c r="AA6">
-        <f>portfolio_input!C13*1000</f>
-        <v>3.0168589174800369</v>
+        <f>portfolio_input!C12*1000</f>
+        <v>21.118012422360248</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -2151,98 +2157,98 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>1.6326530612244898</v>
+        <v>0.16563146997929609</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>3.2653061224489797</v>
+        <v>0.33126293995859218</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>4.8979591836734695</v>
+        <v>0.49689440993788825</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>6.5306122448979593</v>
+        <v>0.66252587991718437</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>8.1632653061224492</v>
+        <v>0.82815734989648049</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>9.795918367346939</v>
+        <v>0.99378881987577661</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>11.428571428571429</v>
+        <v>1.1594202898550727</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>13.061224489795919</v>
+        <v>1.3250517598343687</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>14.693877551020408</v>
+        <v>1.4906832298136647</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>16.326530612244898</v>
+        <v>1.6563146997929608</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>17.95918367346939</v>
+        <v>1.8219461697722568</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>19.591836734693878</v>
+        <v>1.9875776397515528</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>21.224489795918366</v>
+        <v>2.1532091097308488</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>22.857142857142854</v>
+        <v>2.318840579710145</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>24.489795918367342</v>
+        <v>2.4844720496894412</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>26.12244897959183</v>
+        <v>2.6501035196687375</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>27.755102040816318</v>
+        <v>2.8157349896480337</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>29.387755102040806</v>
+        <v>2.9813664596273299</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>31.020408163265294</v>
+        <v>3.1469979296066262</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>32.653061224489782</v>
+        <v>3.3126293995859224</v>
       </c>
       <c r="AA7">
-        <f>portfolio_input!C12*1000</f>
-        <v>34.285714285714285</v>
+        <f>portfolio_input!C13*1000</f>
+        <v>3.4782608695652177</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -2255,202 +2261,202 @@
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.7098491570541261</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4196983141082522</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1295474711623781</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8393966282165044</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5492457852706307</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.259094942324757</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9689440993788834</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6787932564330097</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.388642413487136</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0984915705412623</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.8083407275953887</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5181898846495141</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.2280390417036404</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9378881987577667</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.647737355811893</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.357586512866019</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.067435669920146</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.777284826974272</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.487133984028398</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.196983141082525</v>
       </c>
       <c r="AA8">
         <f>portfolio_input!C14*1000</f>
-        <v>0</v>
+        <v>14.906832298136647</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>14761.904761904761</v>
+        <v>2.3661638568470866E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>29523.809523809523</v>
+        <v>4.7323277136941733E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>44285.714285714283</v>
+        <f t="shared" si="2"/>
+        <v>7.0984915705412599E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>59047.619047619046</v>
+        <f t="shared" si="2"/>
+        <v>9.4646554273883465E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>73809.523809523802</v>
+        <f t="shared" si="2"/>
+        <v>0.11830819284235433</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>88571.428571428565</v>
+        <f t="shared" si="2"/>
+        <v>0.1419698314108252</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>103333.33333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.16563146997929606</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>118095.23809523809</v>
+        <f t="shared" si="2"/>
+        <v>0.18929310854776693</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
-        <v>132857.14285714284</v>
+        <f t="shared" si="2"/>
+        <v>0.2129547471162378</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>147619.0476190476</v>
+        <f t="shared" si="2"/>
+        <v>0.23661638568470866</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>162380.95238095237</v>
+        <f t="shared" si="2"/>
+        <v>0.26027802425317953</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
-        <v>177142.85714285713</v>
+        <f t="shared" si="2"/>
+        <v>0.2839396628216504</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>191904.76190476189</v>
+        <f t="shared" si="2"/>
+        <v>0.30760130139012126</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
-        <v>206666.66666666666</v>
+        <f t="shared" si="2"/>
+        <v>0.33126293995859213</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
-        <v>221428.57142857142</v>
+        <f t="shared" si="2"/>
+        <v>0.35492457852706299</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
-        <v>236190.47619047618</v>
+        <f t="shared" si="2"/>
+        <v>0.37858621709553386</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
-        <v>250952.38095238095</v>
+        <f t="shared" si="2"/>
+        <v>0.40224785566400473</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>265714.28571428568</v>
+        <v>0.42590949423247559</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>280476.19047619042</v>
+        <v>0.44957113280094646</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>295238.09523809515</v>
-      </c>
-      <c r="AA9" s="18">
-        <f>portfolio_input!C15</f>
-        <v>310000</v>
+        <v>0.47323277136941733</v>
+      </c>
+      <c r="AA9">
+        <f>portfolio_input!C15*1000</f>
+        <v>0.49689440993788819</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2462,99 +2468,99 @@
         <v>69</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="1"/>
-        <v>523.80952380952385</v>
+        <f t="shared" ref="G3:G20" si="4">AA10/21</f>
+        <v>14761.904761904761</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1047.6190476190477</v>
+        <f t="shared" si="3"/>
+        <v>29523.809523809523</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1571.4285714285716</v>
+        <v>44285.714285714283</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>2095.2380952380954</v>
+        <v>59047.619047619046</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2619.0476190476193</v>
+        <v>73809.523809523802</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>3142.8571428571431</v>
+        <v>88571.428571428565</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>3666.666666666667</v>
+        <v>103333.33333333333</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>4190.4761904761908</v>
+        <v>118095.23809523809</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>4714.2857142857147</v>
+        <v>132857.14285714284</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>5238.0952380952385</v>
+        <v>147619.0476190476</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>5761.9047619047624</v>
+        <v>162380.95238095237</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>6285.7142857142862</v>
+        <v>177142.85714285713</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>6809.5238095238101</v>
+        <v>191904.76190476189</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>7333.3333333333339</v>
+        <v>206666.66666666666</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>7857.1428571428578</v>
+        <v>221428.57142857142</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>8380.9523809523816</v>
+        <v>236190.47619047618</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>8904.7619047619046</v>
+        <v>250952.38095238095</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>9428.5714285714275</v>
+        <v>265714.28571428568</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>9952.3809523809505</v>
+        <v>280476.19047619042</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>10476.190476190473</v>
+        <v>295238.09523809515</v>
       </c>
       <c r="AA10" s="18">
         <f>portfolio_input!C16</f>
-        <v>11000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2566,96 +2572,96 @@
         <v>69</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="1"/>
-        <v>5721.7847769028867</v>
+        <f t="shared" ref="G11:G14" si="5">AA11/21</f>
+        <v>523.80952380952385</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>11443.569553805773</v>
+        <f t="shared" ref="H11:H14" si="6">$AA11/21+G11</f>
+        <v>1047.6190476190477</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>17165.354330708658</v>
+        <v>1571.4285714285716</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>22887.139107611547</v>
+        <v>2095.2380952380954</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>28608.923884514435</v>
+        <v>2619.0476190476193</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>34330.708661417324</v>
+        <v>3142.8571428571431</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>40052.493438320213</v>
+        <v>3666.666666666667</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>45774.278215223101</v>
+        <v>4190.4761904761908</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>51496.06299212599</v>
+        <v>4714.2857142857147</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>57217.847769028878</v>
+        <v>5238.0952380952385</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>62939.632545931767</v>
+        <v>5761.9047619047624</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
-        <v>68661.417322834648</v>
+        <v>6285.7142857142862</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>74383.202099737537</v>
+        <v>6809.5238095238101</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>80104.986876640425</v>
+        <v>7333.3333333333339</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>85826.771653543314</v>
+        <v>7857.1428571428578</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>91548.556430446202</v>
+        <v>8380.9523809523816</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>97270.341207349091</v>
+        <v>8904.7619047619046</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>102992.12598425198</v>
+        <v>9428.5714285714275</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>108713.91076115487</v>
+        <v>9952.3809523809505</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>114435.69553805776</v>
+        <v>10476.190476190473</v>
       </c>
       <c r="AA11" s="18">
         <f>portfolio_input!C17</f>
-        <v>120157.48031496063</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -2670,99 +2676,99 @@
         <v>69</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="1"/>
-        <v>471.35984432151918</v>
+        <f t="shared" si="5"/>
+        <v>3993.0890216824801</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>942.71968864303835</v>
+        <f t="shared" si="6"/>
+        <v>7986.1780433649601</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>1414.0795329645575</v>
+        <v>11979.267065047439</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>1885.4393772860767</v>
+        <v>15972.35608672992</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>2356.7992216075959</v>
+        <v>19965.445108412401</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>2828.1590659291151</v>
+        <v>23958.534130094882</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>3299.5189102506342</v>
+        <v>27951.623151777363</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>3770.8787545721534</v>
+        <v>31944.712173459844</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>4242.238598893673</v>
+        <v>35937.801195142325</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>4713.5984432151927</v>
+        <v>39930.890216824802</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>5184.9582875367123</v>
+        <v>43923.97923850728</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>5656.3181318582319</v>
+        <v>47917.068260189757</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>6127.6779761797516</v>
+        <v>51910.157281872234</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>6599.0378205012712</v>
+        <v>55903.246303554712</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>7070.3976648227908</v>
+        <v>59896.335325237189</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>7541.7575091443105</v>
+        <v>63889.424346919666</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>8013.1173534658301</v>
+        <v>67882.513368602144</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>8484.4771977873497</v>
+        <v>71875.602390284621</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
-        <v>8955.8370421088694</v>
+        <v>75868.691411967098</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>9427.196886430389</v>
+        <v>79861.780433649576</v>
       </c>
       <c r="AA12" s="18">
         <f>portfolio_input!C18</f>
-        <v>9898.5567307519032</v>
+        <v>83854.869455332082</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2774,515 +2780,515 @@
         <v>69</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>657.68525063005563</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1315.3705012601113</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1973.0557518901669</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2630.7410025202225</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3288.4262531502782</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3946.1115037803338</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4603.7967544103894</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5261.4820050404451</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5919.1672556705007</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6576.8525063005563</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7234.537756930612</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7892.2230075606676</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8549.9082581907242</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9207.5935088207807</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9865.2787594508372</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10522.964010080894</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11180.64926071095</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11838.334511341007</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12496.019761971063</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13153.70501260112</v>
       </c>
       <c r="AA13" s="18">
         <f>portfolio_input!C19</f>
-        <v>0</v>
+        <v>13811.390263231167</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" si="1"/>
-        <v>274.72527472527474</v>
+        <f t="shared" si="5"/>
+        <v>1893.3795969071944</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:Z14" si="3">$AA14/21+G14</f>
-        <v>549.45054945054949</v>
+        <f t="shared" si="6"/>
+        <v>3786.7591938143887</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>824.17582417582423</v>
+        <f t="shared" si="0"/>
+        <v>5680.1387907215831</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>1098.901098901099</v>
+        <f t="shared" si="0"/>
+        <v>7573.5183876287774</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
-        <v>1373.6263736263736</v>
+        <f t="shared" si="0"/>
+        <v>9466.8979845359718</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
-        <v>1648.3516483516482</v>
+        <f t="shared" si="0"/>
+        <v>11360.277581443166</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>1923.0769230769229</v>
+        <f t="shared" si="0"/>
+        <v>13253.65717835036</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
-        <v>2197.8021978021975</v>
+        <f t="shared" si="0"/>
+        <v>15147.036775257555</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
-        <v>2472.5274725274721</v>
+        <f t="shared" si="0"/>
+        <v>17040.416372164749</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
-        <v>2747.2527472527468</v>
+        <f t="shared" si="0"/>
+        <v>18933.795969071944</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>3021.9780219780214</v>
+        <f t="shared" si="0"/>
+        <v>20827.175565979138</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
-        <v>3296.703296703296</v>
+        <f t="shared" si="0"/>
+        <v>22720.555162886332</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
-        <v>3571.4285714285706</v>
+        <f t="shared" si="0"/>
+        <v>24613.934759793527</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
-        <v>3846.1538461538453</v>
+        <f t="shared" si="0"/>
+        <v>26507.314356700721</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
-        <v>4120.8791208791199</v>
+        <f t="shared" si="0"/>
+        <v>28400.693953607915</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
-        <v>4395.604395604395</v>
+        <f t="shared" si="0"/>
+        <v>30294.07355051511</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
-        <v>4670.3296703296701</v>
+        <f t="shared" si="0"/>
+        <v>32187.453147422304</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
-        <v>4945.0549450549452</v>
+        <f t="shared" si="0"/>
+        <v>34080.832744329498</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>5219.7802197802202</v>
+        <f t="shared" si="0"/>
+        <v>35974.212341236693</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
-        <v>5494.5054945054953</v>
+        <f t="shared" si="0"/>
+        <v>37867.591938143887</v>
       </c>
       <c r="AA14" s="18">
-        <f>portfolio_input!C20*1000</f>
-        <v>5769.2307692307695</v>
+        <f>portfolio_input!C20</f>
+        <v>39760.971535051081</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="1"/>
-        <v>10.989010989010989</v>
+        <f t="shared" si="4"/>
+        <v>122.51279744693609</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:Z15" si="4">$AA15/21+G15</f>
-        <v>21.978021978021978</v>
+        <f t="shared" si="3"/>
+        <v>245.02559489387218</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>32.967032967032964</v>
+        <f t="shared" si="0"/>
+        <v>367.53839234080829</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>43.956043956043956</v>
+        <f t="shared" si="0"/>
+        <v>490.05118978774436</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>54.945054945054949</v>
+        <f t="shared" si="0"/>
+        <v>612.56398723468044</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
-        <v>65.934065934065941</v>
+        <f t="shared" si="0"/>
+        <v>735.07678468161657</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>76.923076923076934</v>
+        <f t="shared" si="0"/>
+        <v>857.58958212855271</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
-        <v>87.912087912087927</v>
+        <f t="shared" si="0"/>
+        <v>980.10237957548884</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
-        <v>98.901098901098919</v>
+        <f t="shared" si="0"/>
+        <v>1102.6151770224249</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
-        <v>109.89010989010991</v>
+        <f t="shared" si="0"/>
+        <v>1225.1279744693609</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>120.8791208791209</v>
+        <f t="shared" si="0"/>
+        <v>1347.6407719162969</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
-        <v>131.86813186813188</v>
+        <f t="shared" si="0"/>
+        <v>1470.1535693632329</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
-        <v>142.85714285714286</v>
+        <f t="shared" si="0"/>
+        <v>1592.6663668101689</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
-        <v>153.84615384615384</v>
+        <f t="shared" si="0"/>
+        <v>1715.179164257105</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
-        <v>164.83516483516482</v>
+        <f t="shared" si="0"/>
+        <v>1837.691961704041</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
-        <v>175.8241758241758</v>
+        <f t="shared" si="0"/>
+        <v>1960.204759150977</v>
       </c>
       <c r="W15">
-        <f t="shared" si="4"/>
-        <v>186.81318681318677</v>
+        <f t="shared" si="0"/>
+        <v>2082.7175565979132</v>
       </c>
       <c r="X15">
-        <f t="shared" si="4"/>
-        <v>197.80219780219775</v>
+        <f t="shared" si="0"/>
+        <v>2205.2303540448493</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="4"/>
-        <v>208.79120879120873</v>
+        <f t="shared" si="0"/>
+        <v>2327.7431514917853</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
-        <v>219.78021978021971</v>
+        <f t="shared" si="0"/>
+        <v>2450.2559489387213</v>
       </c>
       <c r="AA15" s="18">
-        <f>portfolio_input!C21*1000</f>
-        <v>230.76923076923077</v>
+        <f>portfolio_input!C21</f>
+        <v>2572.7687463856578</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="1"/>
-        <v>4081.6326530612241</v>
+        <f t="shared" si="4"/>
+        <v>274.72527472527474</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:Z16" si="5">$AA16/21+G16</f>
-        <v>8163.2653061224482</v>
+        <f t="shared" ref="H16:Z16" si="7">$AA16/21+G16</f>
+        <v>549.45054945054949</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
-        <v>12244.897959183672</v>
+        <f t="shared" si="7"/>
+        <v>824.17582417582423</v>
       </c>
       <c r="J16">
-        <f t="shared" si="5"/>
-        <v>16326.530612244896</v>
+        <f t="shared" si="7"/>
+        <v>1098.901098901099</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
-        <v>20408.163265306121</v>
+        <f t="shared" si="7"/>
+        <v>1373.6263736263736</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
-        <v>24489.795918367345</v>
+        <f t="shared" si="7"/>
+        <v>1648.3516483516482</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
-        <v>28571.428571428569</v>
+        <f t="shared" si="7"/>
+        <v>1923.0769230769229</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
-        <v>32653.061224489793</v>
+        <f t="shared" si="7"/>
+        <v>2197.8021978021975</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
-        <v>36734.693877551021</v>
+        <f t="shared" si="7"/>
+        <v>2472.5274725274721</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
-        <v>40816.326530612248</v>
+        <f t="shared" si="7"/>
+        <v>2747.2527472527468</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>44897.959183673476</v>
+        <f t="shared" si="7"/>
+        <v>3021.9780219780214</v>
       </c>
       <c r="R16">
-        <f t="shared" si="5"/>
-        <v>48979.591836734704</v>
+        <f t="shared" si="7"/>
+        <v>3296.703296703296</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
-        <v>53061.224489795932</v>
+        <f t="shared" si="7"/>
+        <v>3571.4285714285706</v>
       </c>
       <c r="T16">
-        <f t="shared" si="5"/>
-        <v>57142.857142857159</v>
+        <f t="shared" si="7"/>
+        <v>3846.1538461538453</v>
       </c>
       <c r="U16">
-        <f t="shared" si="5"/>
-        <v>61224.489795918387</v>
+        <f t="shared" si="7"/>
+        <v>4120.8791208791199</v>
       </c>
       <c r="V16">
-        <f t="shared" si="5"/>
-        <v>65306.122448979615</v>
+        <f t="shared" si="7"/>
+        <v>4395.604395604395</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
-        <v>69387.755102040843</v>
+        <f t="shared" si="7"/>
+        <v>4670.3296703296701</v>
       </c>
       <c r="X16">
-        <f t="shared" si="5"/>
-        <v>73469.387755102071</v>
+        <f t="shared" si="7"/>
+        <v>4945.0549450549452</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="5"/>
-        <v>77551.020408163298</v>
+        <f t="shared" si="7"/>
+        <v>5219.7802197802202</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="5"/>
-        <v>81632.653061224526</v>
-      </c>
-      <c r="AA16">
+        <f t="shared" si="7"/>
+        <v>5494.5054945054953</v>
+      </c>
+      <c r="AA16" s="18">
         <f>portfolio_input!C22*1000</f>
-        <v>85714.28571428571</v>
+        <v>5769.2307692307695</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="1"/>
-        <v>680.27210884353735</v>
+        <f t="shared" si="4"/>
+        <v>10.989010989010989</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:Z17" si="6">$AA17/21+G17</f>
-        <v>1360.5442176870747</v>
+        <f t="shared" ref="H17:Z17" si="8">$AA17/21+G17</f>
+        <v>21.978021978021978</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>2040.8163265306121</v>
+        <f t="shared" si="8"/>
+        <v>32.967032967032964</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
-        <v>2721.0884353741494</v>
+        <f t="shared" si="8"/>
+        <v>43.956043956043956</v>
       </c>
       <c r="K17">
-        <f t="shared" si="6"/>
-        <v>3401.3605442176868</v>
+        <f t="shared" si="8"/>
+        <v>54.945054945054949</v>
       </c>
       <c r="L17">
-        <f t="shared" si="6"/>
-        <v>4081.6326530612241</v>
+        <f t="shared" si="8"/>
+        <v>65.934065934065941</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
-        <v>4761.9047619047615</v>
+        <f t="shared" si="8"/>
+        <v>76.923076923076934</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
-        <v>5442.1768707482988</v>
+        <f t="shared" si="8"/>
+        <v>87.912087912087927</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
-        <v>6122.4489795918362</v>
+        <f t="shared" si="8"/>
+        <v>98.901098901098919</v>
       </c>
       <c r="P17">
-        <f t="shared" si="6"/>
-        <v>6802.7210884353735</v>
+        <f t="shared" si="8"/>
+        <v>109.89010989010991</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>7482.9931972789109</v>
+        <f t="shared" si="8"/>
+        <v>120.8791208791209</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
-        <v>8163.2653061224482</v>
+        <f t="shared" si="8"/>
+        <v>131.86813186813188</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
-        <v>8843.5374149659856</v>
+        <f t="shared" si="8"/>
+        <v>142.85714285714286</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
-        <v>9523.8095238095229</v>
+        <f t="shared" si="8"/>
+        <v>153.84615384615384</v>
       </c>
       <c r="U17">
-        <f t="shared" si="6"/>
-        <v>10204.08163265306</v>
+        <f t="shared" si="8"/>
+        <v>164.83516483516482</v>
       </c>
       <c r="V17">
-        <f t="shared" si="6"/>
-        <v>10884.353741496598</v>
+        <f t="shared" si="8"/>
+        <v>175.8241758241758</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
-        <v>11564.625850340135</v>
+        <f t="shared" si="8"/>
+        <v>186.81318681318677</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
-        <v>12244.897959183672</v>
+        <f t="shared" si="8"/>
+        <v>197.80219780219775</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="6"/>
-        <v>12925.17006802721</v>
+        <f t="shared" si="8"/>
+        <v>208.79120879120873</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="6"/>
-        <v>13605.442176870747</v>
-      </c>
-      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>219.78021978021971</v>
+      </c>
+      <c r="AA17" s="18">
         <f>portfolio_input!C23*1000</f>
-        <v>14285.714285714284</v>
+        <v>230.76923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -3294,88 +3300,296 @@
         <v>75</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="1"/>
-        <v>238.0952380952381</v>
+        <f t="shared" si="4"/>
+        <v>4.0816326530612246</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:Z18" si="7">$AA18/21+G18</f>
-        <v>476.1904761904762</v>
+        <f t="shared" ref="H18:Z18" si="9">$AA18/21+G18</f>
+        <v>8.1632653061224492</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
-        <v>714.28571428571433</v>
+        <f t="shared" si="9"/>
+        <v>12.244897959183675</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
-        <v>952.38095238095241</v>
+        <f t="shared" si="9"/>
+        <v>16.326530612244898</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
-        <v>1190.4761904761906</v>
+        <f t="shared" si="9"/>
+        <v>20.408163265306122</v>
       </c>
       <c r="L18">
-        <f t="shared" si="7"/>
-        <v>1428.5714285714287</v>
+        <f t="shared" si="9"/>
+        <v>24.489795918367346</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
-        <v>1666.6666666666667</v>
+        <f t="shared" si="9"/>
+        <v>28.571428571428569</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
-        <v>1904.7619047619048</v>
+        <f t="shared" si="9"/>
+        <v>32.653061224489797</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
-        <v>2142.8571428571431</v>
+        <f t="shared" si="9"/>
+        <v>36.734693877551024</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
-        <v>2380.9523809523812</v>
+        <f t="shared" si="9"/>
+        <v>40.816326530612251</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>2619.0476190476193</v>
+        <f t="shared" si="9"/>
+        <v>44.897959183673478</v>
       </c>
       <c r="R18">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428573</v>
+        <f t="shared" si="9"/>
+        <v>48.979591836734706</v>
       </c>
       <c r="S18">
-        <f t="shared" si="7"/>
-        <v>3095.2380952380954</v>
+        <f t="shared" si="9"/>
+        <v>53.061224489795933</v>
       </c>
       <c r="T18">
-        <f t="shared" si="7"/>
-        <v>3333.3333333333335</v>
+        <f t="shared" si="9"/>
+        <v>57.14285714285716</v>
       </c>
       <c r="U18">
-        <f t="shared" si="7"/>
-        <v>3571.4285714285716</v>
+        <f t="shared" si="9"/>
+        <v>61.224489795918387</v>
       </c>
       <c r="V18">
-        <f t="shared" si="7"/>
-        <v>3809.5238095238096</v>
+        <f t="shared" si="9"/>
+        <v>65.306122448979607</v>
       </c>
       <c r="W18">
-        <f t="shared" si="7"/>
-        <v>4047.6190476190477</v>
+        <f t="shared" si="9"/>
+        <v>69.387755102040828</v>
       </c>
       <c r="X18">
-        <f t="shared" si="7"/>
-        <v>4285.7142857142862</v>
+        <f t="shared" si="9"/>
+        <v>73.469387755102048</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="7"/>
-        <v>4523.8095238095248</v>
+        <f t="shared" si="9"/>
+        <v>77.551020408163268</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="7"/>
-        <v>4761.9047619047633</v>
+        <f t="shared" si="9"/>
+        <v>81.632653061224488</v>
       </c>
       <c r="AA18">
-        <f>portfolio_input!C24*1000</f>
-        <v>5000</v>
+        <f>portfolio_input!C24</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="4"/>
+        <v>0.68027210884353739</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:Z19" si="10">$AA19/21+G19</f>
+        <v>1.3605442176870748</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="10"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="10"/>
+        <v>2.7210884353741496</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="10"/>
+        <v>3.4013605442176869</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="10"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="10"/>
+        <v>5.4421768707482991</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="10"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>6.8027210884353737</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>7.482993197278911</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>8.1632653061224492</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>8.8435374149659864</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="10"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="10"/>
+        <v>10.204081632653061</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>10.884353741496598</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>11.564625850340136</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>12.244897959183673</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="10"/>
+        <v>12.92517006802721</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="10"/>
+        <v>13.605442176870747</v>
+      </c>
+      <c r="AA19">
+        <f>portfolio_input!C25</f>
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="4"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:Z20" si="11">$AA20/21+G20</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>0.71428571428571419</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="11"/>
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="11"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="11"/>
+        <v>1.9047619047619049</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>3.0952380952380953</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="11"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="11"/>
+        <v>3.8095238095238098</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>4.0476190476190474</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="11"/>
+        <v>4.5238095238095237</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="11"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="AA20">
+        <f>portfolio_input!C26</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3398,357 +3612,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="25">
+      <c r="B1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="23">
         <v>2025</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="23">
         <v>2026</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="23">
         <v>2027</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="23">
         <v>2028</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="23">
         <v>2029</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="23">
         <v>2030</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="23">
         <v>2031</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="23">
         <v>2032</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="23">
         <v>2033</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="23">
         <v>2034</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="23">
         <v>2035</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="23">
         <v>2036</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="23">
         <v>2037</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="23">
         <v>2038</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="23">
         <v>2039</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="23">
         <v>2040</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="23">
         <v>2041</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="23">
         <v>2042</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1" s="23">
         <v>2043</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="23">
         <v>2044</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="23">
         <v>2045</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23">
+        <v>1</v>
+      </c>
+      <c r="L2" s="23">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23">
+        <v>1</v>
+      </c>
+      <c r="N2" s="23">
+        <v>1</v>
+      </c>
+      <c r="O2" s="23">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>1</v>
+      </c>
+      <c r="R2" s="23">
+        <v>1</v>
+      </c>
+      <c r="S2" s="23">
+        <v>1</v>
+      </c>
+      <c r="T2" s="23">
+        <v>1</v>
+      </c>
+      <c r="U2" s="23">
+        <v>1</v>
+      </c>
+      <c r="V2" s="23">
+        <v>1</v>
+      </c>
+      <c r="W2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="V3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25">
-        <v>1</v>
-      </c>
-      <c r="G2" s="25">
-        <v>1</v>
-      </c>
-      <c r="H2" s="25">
-        <v>1</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1</v>
-      </c>
-      <c r="J2" s="25">
-        <v>1</v>
-      </c>
-      <c r="K2" s="25">
-        <v>1</v>
-      </c>
-      <c r="L2" s="25">
-        <v>1</v>
-      </c>
-      <c r="M2" s="25">
-        <v>1</v>
-      </c>
-      <c r="N2" s="25">
-        <v>1</v>
-      </c>
-      <c r="O2" s="25">
-        <v>1</v>
-      </c>
-      <c r="P2" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>1</v>
-      </c>
-      <c r="R2" s="25">
-        <v>1</v>
-      </c>
-      <c r="S2" s="25">
-        <v>1</v>
-      </c>
-      <c r="T2" s="25">
-        <v>1</v>
-      </c>
-      <c r="U2" s="25">
-        <v>1</v>
-      </c>
-      <c r="V2" s="25">
-        <v>1</v>
-      </c>
-      <c r="W2" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="U3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="V3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="W3" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="S4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="U4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="W4" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
-        <v>1</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="25">
-        <v>1</v>
-      </c>
-      <c r="O5" s="25">
-        <v>1</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>1</v>
-      </c>
-      <c r="R5" s="25">
-        <v>1</v>
-      </c>
-      <c r="S5" s="25">
-        <v>1</v>
-      </c>
-      <c r="T5" s="25">
-        <v>1</v>
-      </c>
-      <c r="U5" s="25">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
-        <v>1</v>
-      </c>
-      <c r="W5" s="25">
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1</v>
+      </c>
+      <c r="O5" s="23">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>1</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1</v>
+      </c>
+      <c r="S5" s="23">
+        <v>1</v>
+      </c>
+      <c r="T5" s="23">
+        <v>1</v>
+      </c>
+      <c r="U5" s="23">
+        <v>1</v>
+      </c>
+      <c r="V5" s="23">
+        <v>1</v>
+      </c>
+      <c r="W5" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3899,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3972,10 +4186,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD9FC6-402B-8D4F-AF23-A8506C6A96EC}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4007,51 +4221,52 @@
         <v>45</v>
       </c>
       <c r="C2" s="18">
-        <v>654000</v>
+        <v>653846.15384615387</v>
       </c>
       <c r="D2" s="18">
-        <v>108000</v>
+        <v>107692.3076923077</v>
       </c>
       <c r="E2" s="18">
-        <v>517000</v>
+        <v>310030.39513677813</v>
       </c>
       <c r="F2" s="18">
-        <v>33000</v>
+        <v>20060.790273556231</v>
       </c>
       <c r="H2" s="18">
-        <v>1311000</v>
+        <f>SUM(C2:F2)</f>
+        <v>1091629.646948796</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="19">
         <f>C2/$H2</f>
-        <v>0.4988558352402746</v>
+        <v>0.59896335325237204</v>
       </c>
       <c r="D3" s="19">
         <f t="shared" ref="D3:F3" si="0">D2/$H2</f>
-        <v>8.2379862700228831E-2</v>
+        <v>9.8652787594508337E-2</v>
       </c>
       <c r="E3" s="19">
         <f t="shared" si="0"/>
-        <v>0.39435545385202136</v>
+        <v>0.28400693953607914</v>
       </c>
       <c r="F3" s="19">
         <f t="shared" si="0"/>
-        <v>2.5171624713958809E-2</v>
+        <v>1.8376919617040414E-2</v>
       </c>
       <c r="H3" s="19">
         <f>SUM(C3:F3)</f>
-        <v>1.0007627765064837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="19">
         <f>C2/(C2+D2)</f>
-        <v>0.8582677165354331</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="D4" s="19">
         <f>1-C4</f>
-        <v>0.1417322834645669</v>
+        <v>0.14141414141414144</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -4235,20 +4450,20 @@
         <v>140000</v>
       </c>
       <c r="C15">
-        <f>B15*$C3</f>
-        <v>69839.816933638445</v>
+        <f>$B15*C3</f>
+        <v>83854.869455332082</v>
       </c>
       <c r="D15">
-        <f>C15*$C3</f>
-        <v>34840.000209458078</v>
+        <f t="shared" ref="D15:F15" si="3">$B15*D3</f>
+        <v>13811.390263231167</v>
       </c>
       <c r="E15">
-        <f>D15*$C3</f>
-        <v>17380.137404260553</v>
+        <f t="shared" si="3"/>
+        <v>39760.971535051081</v>
       </c>
       <c r="F15">
-        <f>E15*$C3</f>
-        <v>8670.1829613931368</v>
+        <f t="shared" si="3"/>
+        <v>2572.7687463856578</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4256,16 +4471,16 @@
       <c r="B16" s="5"/>
       <c r="C16">
         <f>B15*C4</f>
-        <v>120157.48031496063</v>
+        <v>120202.0202020202</v>
       </c>
       <c r="D16">
-        <f>C15*D4</f>
-        <v>9898.5567307519032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <f>B15*D4</f>
+        <v>19797.979797979802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -4279,9 +4494,9 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -4295,11 +4510,75 @@
         <v>14.28571428571429</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <f>215000-193500</f>
-        <v>21500</v>
-      </c>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
+++ b/data/SJV Portfolio - Proportional Buildout 1.31.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAFFF8-FB38-0746-AC31-681BAB568EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7982983-6C65-484A-93A9-D82089A884F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
   <si>
     <t>Solar</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>The Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule. THIS PORTFOLIO ONLY USES BIOGAS TO PRODUCE BIOMETHANE FOR THE GAS GRID WHILE WE UPDATE THE MODEL.</t>
+  </si>
+  <si>
+    <t>Animal Fat</t>
   </si>
 </sst>
 </file>
@@ -610,6 +613,9 @@
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -618,9 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="133" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -985,35 +988,35 @@
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -1245,7 +1248,7 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>83854.869455332082</v>
       </c>
       <c r="D18" s="16">
@@ -1265,7 +1268,7 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>13811.390263231167</v>
       </c>
       <c r="D19" s="16">
@@ -1285,7 +1288,7 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <v>39760.971535051081</v>
       </c>
       <c r="D20" s="16"/>
@@ -1297,7 +1300,7 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>2572.7687463856578</v>
       </c>
       <c r="D21" s="16"/>
@@ -1521,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA2:AA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2468,7 +2471,7 @@
         <v>69</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G3:G20" si="4">AA10/21</f>
+        <f t="shared" ref="G10:G20" si="4">AA10/21</f>
         <v>14761.904761904761</v>
       </c>
       <c r="H10">
@@ -3492,8 +3495,8 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="B20" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
